--- a/examples/test_copy.xlsx
+++ b/examples/test_copy.xlsx
@@ -24,7 +24,7 @@
     <t>byline</t>
   </si>
   <si>
-    <t>Name Here</t>
+    <t>Uñicodë</t>
   </si>
   <si>
     <t>pubdate</t>

--- a/examples/test_copy.xlsx
+++ b/examples/test_copy.xlsx
@@ -30,7 +30,13 @@
     <t>pubdate</t>
   </si>
   <si>
+    <t>1/22/2013</t>
+  </si>
+  <si>
     <t>pubtime</t>
+  </si>
+  <si>
+    <t>3:37 AM</t>
   </si>
   <si>
     <t>key</t>
@@ -85,9 +91,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm am/pm"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -131,12 +134,10 @@
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="14" borderId="1" applyFont="1" fontId="2" applyNumberFormat="1">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="3" applyNumberFormat="1">
-      <alignment/>
-    </xf>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -169,7 +170,7 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c t="s" s="2" r="B1">
         <v>1</v>
       </c>
     </row>
@@ -177,7 +178,7 @@
       <c t="s" s="1" r="A2">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="B2">
+      <c t="s" s="2" r="B2">
         <v>3</v>
       </c>
     </row>
@@ -185,17 +186,3005 @@
       <c t="s" s="1" r="A3">
         <v>4</v>
       </c>
-      <c s="2" r="B3">
-        <v>41296.0</v>
+      <c t="s" s="2" r="B3">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c s="3" r="B4">
-        <v>0.15069444444444444</v>
+      <c t="s" s="2" r="B4">
+        <v>7</v>
       </c>
+    </row>
+    <row r="5">
+      <c s="3" r="B5"/>
+    </row>
+    <row r="6">
+      <c s="3" r="B6"/>
+    </row>
+    <row r="7">
+      <c s="3" r="B7"/>
+    </row>
+    <row r="8">
+      <c s="3" r="B8"/>
+    </row>
+    <row r="9">
+      <c s="3" r="B9"/>
+    </row>
+    <row r="10">
+      <c s="3" r="B10"/>
+    </row>
+    <row r="11">
+      <c s="3" r="B11"/>
+    </row>
+    <row r="12">
+      <c s="3" r="B12"/>
+    </row>
+    <row r="13">
+      <c s="3" r="B13"/>
+    </row>
+    <row r="14">
+      <c s="3" r="B14"/>
+    </row>
+    <row r="15">
+      <c s="3" r="B15"/>
+    </row>
+    <row r="16">
+      <c s="3" r="B16"/>
+    </row>
+    <row r="17">
+      <c s="3" r="B17"/>
+    </row>
+    <row r="18">
+      <c s="3" r="B18"/>
+    </row>
+    <row r="19">
+      <c s="3" r="B19"/>
+    </row>
+    <row r="20">
+      <c s="3" r="B20"/>
+    </row>
+    <row r="21">
+      <c s="3" r="B21"/>
+    </row>
+    <row r="22">
+      <c s="3" r="B22"/>
+    </row>
+    <row r="23">
+      <c s="3" r="B23"/>
+    </row>
+    <row r="24">
+      <c s="3" r="B24"/>
+    </row>
+    <row r="25">
+      <c s="3" r="B25"/>
+    </row>
+    <row r="26">
+      <c s="3" r="B26"/>
+    </row>
+    <row r="27">
+      <c s="3" r="B27"/>
+    </row>
+    <row r="28">
+      <c s="3" r="B28"/>
+    </row>
+    <row r="29">
+      <c s="3" r="B29"/>
+    </row>
+    <row r="30">
+      <c s="3" r="B30"/>
+    </row>
+    <row r="31">
+      <c s="3" r="B31"/>
+    </row>
+    <row r="32">
+      <c s="3" r="B32"/>
+    </row>
+    <row r="33">
+      <c s="3" r="B33"/>
+    </row>
+    <row r="34">
+      <c s="3" r="B34"/>
+    </row>
+    <row r="35">
+      <c s="3" r="B35"/>
+    </row>
+    <row r="36">
+      <c s="3" r="B36"/>
+    </row>
+    <row r="37">
+      <c s="3" r="B37"/>
+    </row>
+    <row r="38">
+      <c s="3" r="B38"/>
+    </row>
+    <row r="39">
+      <c s="3" r="B39"/>
+    </row>
+    <row r="40">
+      <c s="3" r="B40"/>
+    </row>
+    <row r="41">
+      <c s="3" r="B41"/>
+    </row>
+    <row r="42">
+      <c s="3" r="B42"/>
+    </row>
+    <row r="43">
+      <c s="3" r="B43"/>
+    </row>
+    <row r="44">
+      <c s="3" r="B44"/>
+    </row>
+    <row r="45">
+      <c s="3" r="B45"/>
+    </row>
+    <row r="46">
+      <c s="3" r="B46"/>
+    </row>
+    <row r="47">
+      <c s="3" r="B47"/>
+    </row>
+    <row r="48">
+      <c s="3" r="B48"/>
+    </row>
+    <row r="49">
+      <c s="3" r="B49"/>
+    </row>
+    <row r="50">
+      <c s="3" r="B50"/>
+    </row>
+    <row r="51">
+      <c s="3" r="B51"/>
+    </row>
+    <row r="52">
+      <c s="3" r="B52"/>
+    </row>
+    <row r="53">
+      <c s="3" r="B53"/>
+    </row>
+    <row r="54">
+      <c s="3" r="B54"/>
+    </row>
+    <row r="55">
+      <c s="3" r="B55"/>
+    </row>
+    <row r="56">
+      <c s="3" r="B56"/>
+    </row>
+    <row r="57">
+      <c s="3" r="B57"/>
+    </row>
+    <row r="58">
+      <c s="3" r="B58"/>
+    </row>
+    <row r="59">
+      <c s="3" r="B59"/>
+    </row>
+    <row r="60">
+      <c s="3" r="B60"/>
+    </row>
+    <row r="61">
+      <c s="3" r="B61"/>
+    </row>
+    <row r="62">
+      <c s="3" r="B62"/>
+    </row>
+    <row r="63">
+      <c s="3" r="B63"/>
+    </row>
+    <row r="64">
+      <c s="3" r="B64"/>
+    </row>
+    <row r="65">
+      <c s="3" r="B65"/>
+    </row>
+    <row r="66">
+      <c s="3" r="B66"/>
+    </row>
+    <row r="67">
+      <c s="3" r="B67"/>
+    </row>
+    <row r="68">
+      <c s="3" r="B68"/>
+    </row>
+    <row r="69">
+      <c s="3" r="B69"/>
+    </row>
+    <row r="70">
+      <c s="3" r="B70"/>
+    </row>
+    <row r="71">
+      <c s="3" r="B71"/>
+    </row>
+    <row r="72">
+      <c s="3" r="B72"/>
+    </row>
+    <row r="73">
+      <c s="3" r="B73"/>
+    </row>
+    <row r="74">
+      <c s="3" r="B74"/>
+    </row>
+    <row r="75">
+      <c s="3" r="B75"/>
+    </row>
+    <row r="76">
+      <c s="3" r="B76"/>
+    </row>
+    <row r="77">
+      <c s="3" r="B77"/>
+    </row>
+    <row r="78">
+      <c s="3" r="B78"/>
+    </row>
+    <row r="79">
+      <c s="3" r="B79"/>
+    </row>
+    <row r="80">
+      <c s="3" r="B80"/>
+    </row>
+    <row r="81">
+      <c s="3" r="B81"/>
+    </row>
+    <row r="82">
+      <c s="3" r="B82"/>
+    </row>
+    <row r="83">
+      <c s="3" r="B83"/>
+    </row>
+    <row r="84">
+      <c s="3" r="B84"/>
+    </row>
+    <row r="85">
+      <c s="3" r="B85"/>
+    </row>
+    <row r="86">
+      <c s="3" r="B86"/>
+    </row>
+    <row r="87">
+      <c s="3" r="B87"/>
+    </row>
+    <row r="88">
+      <c s="3" r="B88"/>
+    </row>
+    <row r="89">
+      <c s="3" r="B89"/>
+    </row>
+    <row r="90">
+      <c s="3" r="B90"/>
+    </row>
+    <row r="91">
+      <c s="3" r="B91"/>
+    </row>
+    <row r="92">
+      <c s="3" r="B92"/>
+    </row>
+    <row r="93">
+      <c s="3" r="B93"/>
+    </row>
+    <row r="94">
+      <c s="3" r="B94"/>
+    </row>
+    <row r="95">
+      <c s="3" r="B95"/>
+    </row>
+    <row r="96">
+      <c s="3" r="B96"/>
+    </row>
+    <row r="97">
+      <c s="3" r="B97"/>
+    </row>
+    <row r="98">
+      <c s="3" r="B98"/>
+    </row>
+    <row r="99">
+      <c s="3" r="B99"/>
+    </row>
+    <row r="100">
+      <c s="3" r="B100"/>
+    </row>
+    <row r="101">
+      <c s="3" r="B101"/>
+    </row>
+    <row r="102">
+      <c s="3" r="B102"/>
+    </row>
+    <row r="103">
+      <c s="3" r="B103"/>
+    </row>
+    <row r="104">
+      <c s="3" r="B104"/>
+    </row>
+    <row r="105">
+      <c s="3" r="B105"/>
+    </row>
+    <row r="106">
+      <c s="3" r="B106"/>
+    </row>
+    <row r="107">
+      <c s="3" r="B107"/>
+    </row>
+    <row r="108">
+      <c s="3" r="B108"/>
+    </row>
+    <row r="109">
+      <c s="3" r="B109"/>
+    </row>
+    <row r="110">
+      <c s="3" r="B110"/>
+    </row>
+    <row r="111">
+      <c s="3" r="B111"/>
+    </row>
+    <row r="112">
+      <c s="3" r="B112"/>
+    </row>
+    <row r="113">
+      <c s="3" r="B113"/>
+    </row>
+    <row r="114">
+      <c s="3" r="B114"/>
+    </row>
+    <row r="115">
+      <c s="3" r="B115"/>
+    </row>
+    <row r="116">
+      <c s="3" r="B116"/>
+    </row>
+    <row r="117">
+      <c s="3" r="B117"/>
+    </row>
+    <row r="118">
+      <c s="3" r="B118"/>
+    </row>
+    <row r="119">
+      <c s="3" r="B119"/>
+    </row>
+    <row r="120">
+      <c s="3" r="B120"/>
+    </row>
+    <row r="121">
+      <c s="3" r="B121"/>
+    </row>
+    <row r="122">
+      <c s="3" r="B122"/>
+    </row>
+    <row r="123">
+      <c s="3" r="B123"/>
+    </row>
+    <row r="124">
+      <c s="3" r="B124"/>
+    </row>
+    <row r="125">
+      <c s="3" r="B125"/>
+    </row>
+    <row r="126">
+      <c s="3" r="B126"/>
+    </row>
+    <row r="127">
+      <c s="3" r="B127"/>
+    </row>
+    <row r="128">
+      <c s="3" r="B128"/>
+    </row>
+    <row r="129">
+      <c s="3" r="B129"/>
+    </row>
+    <row r="130">
+      <c s="3" r="B130"/>
+    </row>
+    <row r="131">
+      <c s="3" r="B131"/>
+    </row>
+    <row r="132">
+      <c s="3" r="B132"/>
+    </row>
+    <row r="133">
+      <c s="3" r="B133"/>
+    </row>
+    <row r="134">
+      <c s="3" r="B134"/>
+    </row>
+    <row r="135">
+      <c s="3" r="B135"/>
+    </row>
+    <row r="136">
+      <c s="3" r="B136"/>
+    </row>
+    <row r="137">
+      <c s="3" r="B137"/>
+    </row>
+    <row r="138">
+      <c s="3" r="B138"/>
+    </row>
+    <row r="139">
+      <c s="3" r="B139"/>
+    </row>
+    <row r="140">
+      <c s="3" r="B140"/>
+    </row>
+    <row r="141">
+      <c s="3" r="B141"/>
+    </row>
+    <row r="142">
+      <c s="3" r="B142"/>
+    </row>
+    <row r="143">
+      <c s="3" r="B143"/>
+    </row>
+    <row r="144">
+      <c s="3" r="B144"/>
+    </row>
+    <row r="145">
+      <c s="3" r="B145"/>
+    </row>
+    <row r="146">
+      <c s="3" r="B146"/>
+    </row>
+    <row r="147">
+      <c s="3" r="B147"/>
+    </row>
+    <row r="148">
+      <c s="3" r="B148"/>
+    </row>
+    <row r="149">
+      <c s="3" r="B149"/>
+    </row>
+    <row r="150">
+      <c s="3" r="B150"/>
+    </row>
+    <row r="151">
+      <c s="3" r="B151"/>
+    </row>
+    <row r="152">
+      <c s="3" r="B152"/>
+    </row>
+    <row r="153">
+      <c s="3" r="B153"/>
+    </row>
+    <row r="154">
+      <c s="3" r="B154"/>
+    </row>
+    <row r="155">
+      <c s="3" r="B155"/>
+    </row>
+    <row r="156">
+      <c s="3" r="B156"/>
+    </row>
+    <row r="157">
+      <c s="3" r="B157"/>
+    </row>
+    <row r="158">
+      <c s="3" r="B158"/>
+    </row>
+    <row r="159">
+      <c s="3" r="B159"/>
+    </row>
+    <row r="160">
+      <c s="3" r="B160"/>
+    </row>
+    <row r="161">
+      <c s="3" r="B161"/>
+    </row>
+    <row r="162">
+      <c s="3" r="B162"/>
+    </row>
+    <row r="163">
+      <c s="3" r="B163"/>
+    </row>
+    <row r="164">
+      <c s="3" r="B164"/>
+    </row>
+    <row r="165">
+      <c s="3" r="B165"/>
+    </row>
+    <row r="166">
+      <c s="3" r="B166"/>
+    </row>
+    <row r="167">
+      <c s="3" r="B167"/>
+    </row>
+    <row r="168">
+      <c s="3" r="B168"/>
+    </row>
+    <row r="169">
+      <c s="3" r="B169"/>
+    </row>
+    <row r="170">
+      <c s="3" r="B170"/>
+    </row>
+    <row r="171">
+      <c s="3" r="B171"/>
+    </row>
+    <row r="172">
+      <c s="3" r="B172"/>
+    </row>
+    <row r="173">
+      <c s="3" r="B173"/>
+    </row>
+    <row r="174">
+      <c s="3" r="B174"/>
+    </row>
+    <row r="175">
+      <c s="3" r="B175"/>
+    </row>
+    <row r="176">
+      <c s="3" r="B176"/>
+    </row>
+    <row r="177">
+      <c s="3" r="B177"/>
+    </row>
+    <row r="178">
+      <c s="3" r="B178"/>
+    </row>
+    <row r="179">
+      <c s="3" r="B179"/>
+    </row>
+    <row r="180">
+      <c s="3" r="B180"/>
+    </row>
+    <row r="181">
+      <c s="3" r="B181"/>
+    </row>
+    <row r="182">
+      <c s="3" r="B182"/>
+    </row>
+    <row r="183">
+      <c s="3" r="B183"/>
+    </row>
+    <row r="184">
+      <c s="3" r="B184"/>
+    </row>
+    <row r="185">
+      <c s="3" r="B185"/>
+    </row>
+    <row r="186">
+      <c s="3" r="B186"/>
+    </row>
+    <row r="187">
+      <c s="3" r="B187"/>
+    </row>
+    <row r="188">
+      <c s="3" r="B188"/>
+    </row>
+    <row r="189">
+      <c s="3" r="B189"/>
+    </row>
+    <row r="190">
+      <c s="3" r="B190"/>
+    </row>
+    <row r="191">
+      <c s="3" r="B191"/>
+    </row>
+    <row r="192">
+      <c s="3" r="B192"/>
+    </row>
+    <row r="193">
+      <c s="3" r="B193"/>
+    </row>
+    <row r="194">
+      <c s="3" r="B194"/>
+    </row>
+    <row r="195">
+      <c s="3" r="B195"/>
+    </row>
+    <row r="196">
+      <c s="3" r="B196"/>
+    </row>
+    <row r="197">
+      <c s="3" r="B197"/>
+    </row>
+    <row r="198">
+      <c s="3" r="B198"/>
+    </row>
+    <row r="199">
+      <c s="3" r="B199"/>
+    </row>
+    <row r="200">
+      <c s="3" r="B200"/>
+    </row>
+    <row r="201">
+      <c s="3" r="B201"/>
+    </row>
+    <row r="202">
+      <c s="3" r="B202"/>
+    </row>
+    <row r="203">
+      <c s="3" r="B203"/>
+    </row>
+    <row r="204">
+      <c s="3" r="B204"/>
+    </row>
+    <row r="205">
+      <c s="3" r="B205"/>
+    </row>
+    <row r="206">
+      <c s="3" r="B206"/>
+    </row>
+    <row r="207">
+      <c s="3" r="B207"/>
+    </row>
+    <row r="208">
+      <c s="3" r="B208"/>
+    </row>
+    <row r="209">
+      <c s="3" r="B209"/>
+    </row>
+    <row r="210">
+      <c s="3" r="B210"/>
+    </row>
+    <row r="211">
+      <c s="3" r="B211"/>
+    </row>
+    <row r="212">
+      <c s="3" r="B212"/>
+    </row>
+    <row r="213">
+      <c s="3" r="B213"/>
+    </row>
+    <row r="214">
+      <c s="3" r="B214"/>
+    </row>
+    <row r="215">
+      <c s="3" r="B215"/>
+    </row>
+    <row r="216">
+      <c s="3" r="B216"/>
+    </row>
+    <row r="217">
+      <c s="3" r="B217"/>
+    </row>
+    <row r="218">
+      <c s="3" r="B218"/>
+    </row>
+    <row r="219">
+      <c s="3" r="B219"/>
+    </row>
+    <row r="220">
+      <c s="3" r="B220"/>
+    </row>
+    <row r="221">
+      <c s="3" r="B221"/>
+    </row>
+    <row r="222">
+      <c s="3" r="B222"/>
+    </row>
+    <row r="223">
+      <c s="3" r="B223"/>
+    </row>
+    <row r="224">
+      <c s="3" r="B224"/>
+    </row>
+    <row r="225">
+      <c s="3" r="B225"/>
+    </row>
+    <row r="226">
+      <c s="3" r="B226"/>
+    </row>
+    <row r="227">
+      <c s="3" r="B227"/>
+    </row>
+    <row r="228">
+      <c s="3" r="B228"/>
+    </row>
+    <row r="229">
+      <c s="3" r="B229"/>
+    </row>
+    <row r="230">
+      <c s="3" r="B230"/>
+    </row>
+    <row r="231">
+      <c s="3" r="B231"/>
+    </row>
+    <row r="232">
+      <c s="3" r="B232"/>
+    </row>
+    <row r="233">
+      <c s="3" r="B233"/>
+    </row>
+    <row r="234">
+      <c s="3" r="B234"/>
+    </row>
+    <row r="235">
+      <c s="3" r="B235"/>
+    </row>
+    <row r="236">
+      <c s="3" r="B236"/>
+    </row>
+    <row r="237">
+      <c s="3" r="B237"/>
+    </row>
+    <row r="238">
+      <c s="3" r="B238"/>
+    </row>
+    <row r="239">
+      <c s="3" r="B239"/>
+    </row>
+    <row r="240">
+      <c s="3" r="B240"/>
+    </row>
+    <row r="241">
+      <c s="3" r="B241"/>
+    </row>
+    <row r="242">
+      <c s="3" r="B242"/>
+    </row>
+    <row r="243">
+      <c s="3" r="B243"/>
+    </row>
+    <row r="244">
+      <c s="3" r="B244"/>
+    </row>
+    <row r="245">
+      <c s="3" r="B245"/>
+    </row>
+    <row r="246">
+      <c s="3" r="B246"/>
+    </row>
+    <row r="247">
+      <c s="3" r="B247"/>
+    </row>
+    <row r="248">
+      <c s="3" r="B248"/>
+    </row>
+    <row r="249">
+      <c s="3" r="B249"/>
+    </row>
+    <row r="250">
+      <c s="3" r="B250"/>
+    </row>
+    <row r="251">
+      <c s="3" r="B251"/>
+    </row>
+    <row r="252">
+      <c s="3" r="B252"/>
+    </row>
+    <row r="253">
+      <c s="3" r="B253"/>
+    </row>
+    <row r="254">
+      <c s="3" r="B254"/>
+    </row>
+    <row r="255">
+      <c s="3" r="B255"/>
+    </row>
+    <row r="256">
+      <c s="3" r="B256"/>
+    </row>
+    <row r="257">
+      <c s="3" r="B257"/>
+    </row>
+    <row r="258">
+      <c s="3" r="B258"/>
+    </row>
+    <row r="259">
+      <c s="3" r="B259"/>
+    </row>
+    <row r="260">
+      <c s="3" r="B260"/>
+    </row>
+    <row r="261">
+      <c s="3" r="B261"/>
+    </row>
+    <row r="262">
+      <c s="3" r="B262"/>
+    </row>
+    <row r="263">
+      <c s="3" r="B263"/>
+    </row>
+    <row r="264">
+      <c s="3" r="B264"/>
+    </row>
+    <row r="265">
+      <c s="3" r="B265"/>
+    </row>
+    <row r="266">
+      <c s="3" r="B266"/>
+    </row>
+    <row r="267">
+      <c s="3" r="B267"/>
+    </row>
+    <row r="268">
+      <c s="3" r="B268"/>
+    </row>
+    <row r="269">
+      <c s="3" r="B269"/>
+    </row>
+    <row r="270">
+      <c s="3" r="B270"/>
+    </row>
+    <row r="271">
+      <c s="3" r="B271"/>
+    </row>
+    <row r="272">
+      <c s="3" r="B272"/>
+    </row>
+    <row r="273">
+      <c s="3" r="B273"/>
+    </row>
+    <row r="274">
+      <c s="3" r="B274"/>
+    </row>
+    <row r="275">
+      <c s="3" r="B275"/>
+    </row>
+    <row r="276">
+      <c s="3" r="B276"/>
+    </row>
+    <row r="277">
+      <c s="3" r="B277"/>
+    </row>
+    <row r="278">
+      <c s="3" r="B278"/>
+    </row>
+    <row r="279">
+      <c s="3" r="B279"/>
+    </row>
+    <row r="280">
+      <c s="3" r="B280"/>
+    </row>
+    <row r="281">
+      <c s="3" r="B281"/>
+    </row>
+    <row r="282">
+      <c s="3" r="B282"/>
+    </row>
+    <row r="283">
+      <c s="3" r="B283"/>
+    </row>
+    <row r="284">
+      <c s="3" r="B284"/>
+    </row>
+    <row r="285">
+      <c s="3" r="B285"/>
+    </row>
+    <row r="286">
+      <c s="3" r="B286"/>
+    </row>
+    <row r="287">
+      <c s="3" r="B287"/>
+    </row>
+    <row r="288">
+      <c s="3" r="B288"/>
+    </row>
+    <row r="289">
+      <c s="3" r="B289"/>
+    </row>
+    <row r="290">
+      <c s="3" r="B290"/>
+    </row>
+    <row r="291">
+      <c s="3" r="B291"/>
+    </row>
+    <row r="292">
+      <c s="3" r="B292"/>
+    </row>
+    <row r="293">
+      <c s="3" r="B293"/>
+    </row>
+    <row r="294">
+      <c s="3" r="B294"/>
+    </row>
+    <row r="295">
+      <c s="3" r="B295"/>
+    </row>
+    <row r="296">
+      <c s="3" r="B296"/>
+    </row>
+    <row r="297">
+      <c s="3" r="B297"/>
+    </row>
+    <row r="298">
+      <c s="3" r="B298"/>
+    </row>
+    <row r="299">
+      <c s="3" r="B299"/>
+    </row>
+    <row r="300">
+      <c s="3" r="B300"/>
+    </row>
+    <row r="301">
+      <c s="3" r="B301"/>
+    </row>
+    <row r="302">
+      <c s="3" r="B302"/>
+    </row>
+    <row r="303">
+      <c s="3" r="B303"/>
+    </row>
+    <row r="304">
+      <c s="3" r="B304"/>
+    </row>
+    <row r="305">
+      <c s="3" r="B305"/>
+    </row>
+    <row r="306">
+      <c s="3" r="B306"/>
+    </row>
+    <row r="307">
+      <c s="3" r="B307"/>
+    </row>
+    <row r="308">
+      <c s="3" r="B308"/>
+    </row>
+    <row r="309">
+      <c s="3" r="B309"/>
+    </row>
+    <row r="310">
+      <c s="3" r="B310"/>
+    </row>
+    <row r="311">
+      <c s="3" r="B311"/>
+    </row>
+    <row r="312">
+      <c s="3" r="B312"/>
+    </row>
+    <row r="313">
+      <c s="3" r="B313"/>
+    </row>
+    <row r="314">
+      <c s="3" r="B314"/>
+    </row>
+    <row r="315">
+      <c s="3" r="B315"/>
+    </row>
+    <row r="316">
+      <c s="3" r="B316"/>
+    </row>
+    <row r="317">
+      <c s="3" r="B317"/>
+    </row>
+    <row r="318">
+      <c s="3" r="B318"/>
+    </row>
+    <row r="319">
+      <c s="3" r="B319"/>
+    </row>
+    <row r="320">
+      <c s="3" r="B320"/>
+    </row>
+    <row r="321">
+      <c s="3" r="B321"/>
+    </row>
+    <row r="322">
+      <c s="3" r="B322"/>
+    </row>
+    <row r="323">
+      <c s="3" r="B323"/>
+    </row>
+    <row r="324">
+      <c s="3" r="B324"/>
+    </row>
+    <row r="325">
+      <c s="3" r="B325"/>
+    </row>
+    <row r="326">
+      <c s="3" r="B326"/>
+    </row>
+    <row r="327">
+      <c s="3" r="B327"/>
+    </row>
+    <row r="328">
+      <c s="3" r="B328"/>
+    </row>
+    <row r="329">
+      <c s="3" r="B329"/>
+    </row>
+    <row r="330">
+      <c s="3" r="B330"/>
+    </row>
+    <row r="331">
+      <c s="3" r="B331"/>
+    </row>
+    <row r="332">
+      <c s="3" r="B332"/>
+    </row>
+    <row r="333">
+      <c s="3" r="B333"/>
+    </row>
+    <row r="334">
+      <c s="3" r="B334"/>
+    </row>
+    <row r="335">
+      <c s="3" r="B335"/>
+    </row>
+    <row r="336">
+      <c s="3" r="B336"/>
+    </row>
+    <row r="337">
+      <c s="3" r="B337"/>
+    </row>
+    <row r="338">
+      <c s="3" r="B338"/>
+    </row>
+    <row r="339">
+      <c s="3" r="B339"/>
+    </row>
+    <row r="340">
+      <c s="3" r="B340"/>
+    </row>
+    <row r="341">
+      <c s="3" r="B341"/>
+    </row>
+    <row r="342">
+      <c s="3" r="B342"/>
+    </row>
+    <row r="343">
+      <c s="3" r="B343"/>
+    </row>
+    <row r="344">
+      <c s="3" r="B344"/>
+    </row>
+    <row r="345">
+      <c s="3" r="B345"/>
+    </row>
+    <row r="346">
+      <c s="3" r="B346"/>
+    </row>
+    <row r="347">
+      <c s="3" r="B347"/>
+    </row>
+    <row r="348">
+      <c s="3" r="B348"/>
+    </row>
+    <row r="349">
+      <c s="3" r="B349"/>
+    </row>
+    <row r="350">
+      <c s="3" r="B350"/>
+    </row>
+    <row r="351">
+      <c s="3" r="B351"/>
+    </row>
+    <row r="352">
+      <c s="3" r="B352"/>
+    </row>
+    <row r="353">
+      <c s="3" r="B353"/>
+    </row>
+    <row r="354">
+      <c s="3" r="B354"/>
+    </row>
+    <row r="355">
+      <c s="3" r="B355"/>
+    </row>
+    <row r="356">
+      <c s="3" r="B356"/>
+    </row>
+    <row r="357">
+      <c s="3" r="B357"/>
+    </row>
+    <row r="358">
+      <c s="3" r="B358"/>
+    </row>
+    <row r="359">
+      <c s="3" r="B359"/>
+    </row>
+    <row r="360">
+      <c s="3" r="B360"/>
+    </row>
+    <row r="361">
+      <c s="3" r="B361"/>
+    </row>
+    <row r="362">
+      <c s="3" r="B362"/>
+    </row>
+    <row r="363">
+      <c s="3" r="B363"/>
+    </row>
+    <row r="364">
+      <c s="3" r="B364"/>
+    </row>
+    <row r="365">
+      <c s="3" r="B365"/>
+    </row>
+    <row r="366">
+      <c s="3" r="B366"/>
+    </row>
+    <row r="367">
+      <c s="3" r="B367"/>
+    </row>
+    <row r="368">
+      <c s="3" r="B368"/>
+    </row>
+    <row r="369">
+      <c s="3" r="B369"/>
+    </row>
+    <row r="370">
+      <c s="3" r="B370"/>
+    </row>
+    <row r="371">
+      <c s="3" r="B371"/>
+    </row>
+    <row r="372">
+      <c s="3" r="B372"/>
+    </row>
+    <row r="373">
+      <c s="3" r="B373"/>
+    </row>
+    <row r="374">
+      <c s="3" r="B374"/>
+    </row>
+    <row r="375">
+      <c s="3" r="B375"/>
+    </row>
+    <row r="376">
+      <c s="3" r="B376"/>
+    </row>
+    <row r="377">
+      <c s="3" r="B377"/>
+    </row>
+    <row r="378">
+      <c s="3" r="B378"/>
+    </row>
+    <row r="379">
+      <c s="3" r="B379"/>
+    </row>
+    <row r="380">
+      <c s="3" r="B380"/>
+    </row>
+    <row r="381">
+      <c s="3" r="B381"/>
+    </row>
+    <row r="382">
+      <c s="3" r="B382"/>
+    </row>
+    <row r="383">
+      <c s="3" r="B383"/>
+    </row>
+    <row r="384">
+      <c s="3" r="B384"/>
+    </row>
+    <row r="385">
+      <c s="3" r="B385"/>
+    </row>
+    <row r="386">
+      <c s="3" r="B386"/>
+    </row>
+    <row r="387">
+      <c s="3" r="B387"/>
+    </row>
+    <row r="388">
+      <c s="3" r="B388"/>
+    </row>
+    <row r="389">
+      <c s="3" r="B389"/>
+    </row>
+    <row r="390">
+      <c s="3" r="B390"/>
+    </row>
+    <row r="391">
+      <c s="3" r="B391"/>
+    </row>
+    <row r="392">
+      <c s="3" r="B392"/>
+    </row>
+    <row r="393">
+      <c s="3" r="B393"/>
+    </row>
+    <row r="394">
+      <c s="3" r="B394"/>
+    </row>
+    <row r="395">
+      <c s="3" r="B395"/>
+    </row>
+    <row r="396">
+      <c s="3" r="B396"/>
+    </row>
+    <row r="397">
+      <c s="3" r="B397"/>
+    </row>
+    <row r="398">
+      <c s="3" r="B398"/>
+    </row>
+    <row r="399">
+      <c s="3" r="B399"/>
+    </row>
+    <row r="400">
+      <c s="3" r="B400"/>
+    </row>
+    <row r="401">
+      <c s="3" r="B401"/>
+    </row>
+    <row r="402">
+      <c s="3" r="B402"/>
+    </row>
+    <row r="403">
+      <c s="3" r="B403"/>
+    </row>
+    <row r="404">
+      <c s="3" r="B404"/>
+    </row>
+    <row r="405">
+      <c s="3" r="B405"/>
+    </row>
+    <row r="406">
+      <c s="3" r="B406"/>
+    </row>
+    <row r="407">
+      <c s="3" r="B407"/>
+    </row>
+    <row r="408">
+      <c s="3" r="B408"/>
+    </row>
+    <row r="409">
+      <c s="3" r="B409"/>
+    </row>
+    <row r="410">
+      <c s="3" r="B410"/>
+    </row>
+    <row r="411">
+      <c s="3" r="B411"/>
+    </row>
+    <row r="412">
+      <c s="3" r="B412"/>
+    </row>
+    <row r="413">
+      <c s="3" r="B413"/>
+    </row>
+    <row r="414">
+      <c s="3" r="B414"/>
+    </row>
+    <row r="415">
+      <c s="3" r="B415"/>
+    </row>
+    <row r="416">
+      <c s="3" r="B416"/>
+    </row>
+    <row r="417">
+      <c s="3" r="B417"/>
+    </row>
+    <row r="418">
+      <c s="3" r="B418"/>
+    </row>
+    <row r="419">
+      <c s="3" r="B419"/>
+    </row>
+    <row r="420">
+      <c s="3" r="B420"/>
+    </row>
+    <row r="421">
+      <c s="3" r="B421"/>
+    </row>
+    <row r="422">
+      <c s="3" r="B422"/>
+    </row>
+    <row r="423">
+      <c s="3" r="B423"/>
+    </row>
+    <row r="424">
+      <c s="3" r="B424"/>
+    </row>
+    <row r="425">
+      <c s="3" r="B425"/>
+    </row>
+    <row r="426">
+      <c s="3" r="B426"/>
+    </row>
+    <row r="427">
+      <c s="3" r="B427"/>
+    </row>
+    <row r="428">
+      <c s="3" r="B428"/>
+    </row>
+    <row r="429">
+      <c s="3" r="B429"/>
+    </row>
+    <row r="430">
+      <c s="3" r="B430"/>
+    </row>
+    <row r="431">
+      <c s="3" r="B431"/>
+    </row>
+    <row r="432">
+      <c s="3" r="B432"/>
+    </row>
+    <row r="433">
+      <c s="3" r="B433"/>
+    </row>
+    <row r="434">
+      <c s="3" r="B434"/>
+    </row>
+    <row r="435">
+      <c s="3" r="B435"/>
+    </row>
+    <row r="436">
+      <c s="3" r="B436"/>
+    </row>
+    <row r="437">
+      <c s="3" r="B437"/>
+    </row>
+    <row r="438">
+      <c s="3" r="B438"/>
+    </row>
+    <row r="439">
+      <c s="3" r="B439"/>
+    </row>
+    <row r="440">
+      <c s="3" r="B440"/>
+    </row>
+    <row r="441">
+      <c s="3" r="B441"/>
+    </row>
+    <row r="442">
+      <c s="3" r="B442"/>
+    </row>
+    <row r="443">
+      <c s="3" r="B443"/>
+    </row>
+    <row r="444">
+      <c s="3" r="B444"/>
+    </row>
+    <row r="445">
+      <c s="3" r="B445"/>
+    </row>
+    <row r="446">
+      <c s="3" r="B446"/>
+    </row>
+    <row r="447">
+      <c s="3" r="B447"/>
+    </row>
+    <row r="448">
+      <c s="3" r="B448"/>
+    </row>
+    <row r="449">
+      <c s="3" r="B449"/>
+    </row>
+    <row r="450">
+      <c s="3" r="B450"/>
+    </row>
+    <row r="451">
+      <c s="3" r="B451"/>
+    </row>
+    <row r="452">
+      <c s="3" r="B452"/>
+    </row>
+    <row r="453">
+      <c s="3" r="B453"/>
+    </row>
+    <row r="454">
+      <c s="3" r="B454"/>
+    </row>
+    <row r="455">
+      <c s="3" r="B455"/>
+    </row>
+    <row r="456">
+      <c s="3" r="B456"/>
+    </row>
+    <row r="457">
+      <c s="3" r="B457"/>
+    </row>
+    <row r="458">
+      <c s="3" r="B458"/>
+    </row>
+    <row r="459">
+      <c s="3" r="B459"/>
+    </row>
+    <row r="460">
+      <c s="3" r="B460"/>
+    </row>
+    <row r="461">
+      <c s="3" r="B461"/>
+    </row>
+    <row r="462">
+      <c s="3" r="B462"/>
+    </row>
+    <row r="463">
+      <c s="3" r="B463"/>
+    </row>
+    <row r="464">
+      <c s="3" r="B464"/>
+    </row>
+    <row r="465">
+      <c s="3" r="B465"/>
+    </row>
+    <row r="466">
+      <c s="3" r="B466"/>
+    </row>
+    <row r="467">
+      <c s="3" r="B467"/>
+    </row>
+    <row r="468">
+      <c s="3" r="B468"/>
+    </row>
+    <row r="469">
+      <c s="3" r="B469"/>
+    </row>
+    <row r="470">
+      <c s="3" r="B470"/>
+    </row>
+    <row r="471">
+      <c s="3" r="B471"/>
+    </row>
+    <row r="472">
+      <c s="3" r="B472"/>
+    </row>
+    <row r="473">
+      <c s="3" r="B473"/>
+    </row>
+    <row r="474">
+      <c s="3" r="B474"/>
+    </row>
+    <row r="475">
+      <c s="3" r="B475"/>
+    </row>
+    <row r="476">
+      <c s="3" r="B476"/>
+    </row>
+    <row r="477">
+      <c s="3" r="B477"/>
+    </row>
+    <row r="478">
+      <c s="3" r="B478"/>
+    </row>
+    <row r="479">
+      <c s="3" r="B479"/>
+    </row>
+    <row r="480">
+      <c s="3" r="B480"/>
+    </row>
+    <row r="481">
+      <c s="3" r="B481"/>
+    </row>
+    <row r="482">
+      <c s="3" r="B482"/>
+    </row>
+    <row r="483">
+      <c s="3" r="B483"/>
+    </row>
+    <row r="484">
+      <c s="3" r="B484"/>
+    </row>
+    <row r="485">
+      <c s="3" r="B485"/>
+    </row>
+    <row r="486">
+      <c s="3" r="B486"/>
+    </row>
+    <row r="487">
+      <c s="3" r="B487"/>
+    </row>
+    <row r="488">
+      <c s="3" r="B488"/>
+    </row>
+    <row r="489">
+      <c s="3" r="B489"/>
+    </row>
+    <row r="490">
+      <c s="3" r="B490"/>
+    </row>
+    <row r="491">
+      <c s="3" r="B491"/>
+    </row>
+    <row r="492">
+      <c s="3" r="B492"/>
+    </row>
+    <row r="493">
+      <c s="3" r="B493"/>
+    </row>
+    <row r="494">
+      <c s="3" r="B494"/>
+    </row>
+    <row r="495">
+      <c s="3" r="B495"/>
+    </row>
+    <row r="496">
+      <c s="3" r="B496"/>
+    </row>
+    <row r="497">
+      <c s="3" r="B497"/>
+    </row>
+    <row r="498">
+      <c s="3" r="B498"/>
+    </row>
+    <row r="499">
+      <c s="3" r="B499"/>
+    </row>
+    <row r="500">
+      <c s="3" r="B500"/>
+    </row>
+    <row r="501">
+      <c s="3" r="B501"/>
+    </row>
+    <row r="502">
+      <c s="3" r="B502"/>
+    </row>
+    <row r="503">
+      <c s="3" r="B503"/>
+    </row>
+    <row r="504">
+      <c s="3" r="B504"/>
+    </row>
+    <row r="505">
+      <c s="3" r="B505"/>
+    </row>
+    <row r="506">
+      <c s="3" r="B506"/>
+    </row>
+    <row r="507">
+      <c s="3" r="B507"/>
+    </row>
+    <row r="508">
+      <c s="3" r="B508"/>
+    </row>
+    <row r="509">
+      <c s="3" r="B509"/>
+    </row>
+    <row r="510">
+      <c s="3" r="B510"/>
+    </row>
+    <row r="511">
+      <c s="3" r="B511"/>
+    </row>
+    <row r="512">
+      <c s="3" r="B512"/>
+    </row>
+    <row r="513">
+      <c s="3" r="B513"/>
+    </row>
+    <row r="514">
+      <c s="3" r="B514"/>
+    </row>
+    <row r="515">
+      <c s="3" r="B515"/>
+    </row>
+    <row r="516">
+      <c s="3" r="B516"/>
+    </row>
+    <row r="517">
+      <c s="3" r="B517"/>
+    </row>
+    <row r="518">
+      <c s="3" r="B518"/>
+    </row>
+    <row r="519">
+      <c s="3" r="B519"/>
+    </row>
+    <row r="520">
+      <c s="3" r="B520"/>
+    </row>
+    <row r="521">
+      <c s="3" r="B521"/>
+    </row>
+    <row r="522">
+      <c s="3" r="B522"/>
+    </row>
+    <row r="523">
+      <c s="3" r="B523"/>
+    </row>
+    <row r="524">
+      <c s="3" r="B524"/>
+    </row>
+    <row r="525">
+      <c s="3" r="B525"/>
+    </row>
+    <row r="526">
+      <c s="3" r="B526"/>
+    </row>
+    <row r="527">
+      <c s="3" r="B527"/>
+    </row>
+    <row r="528">
+      <c s="3" r="B528"/>
+    </row>
+    <row r="529">
+      <c s="3" r="B529"/>
+    </row>
+    <row r="530">
+      <c s="3" r="B530"/>
+    </row>
+    <row r="531">
+      <c s="3" r="B531"/>
+    </row>
+    <row r="532">
+      <c s="3" r="B532"/>
+    </row>
+    <row r="533">
+      <c s="3" r="B533"/>
+    </row>
+    <row r="534">
+      <c s="3" r="B534"/>
+    </row>
+    <row r="535">
+      <c s="3" r="B535"/>
+    </row>
+    <row r="536">
+      <c s="3" r="B536"/>
+    </row>
+    <row r="537">
+      <c s="3" r="B537"/>
+    </row>
+    <row r="538">
+      <c s="3" r="B538"/>
+    </row>
+    <row r="539">
+      <c s="3" r="B539"/>
+    </row>
+    <row r="540">
+      <c s="3" r="B540"/>
+    </row>
+    <row r="541">
+      <c s="3" r="B541"/>
+    </row>
+    <row r="542">
+      <c s="3" r="B542"/>
+    </row>
+    <row r="543">
+      <c s="3" r="B543"/>
+    </row>
+    <row r="544">
+      <c s="3" r="B544"/>
+    </row>
+    <row r="545">
+      <c s="3" r="B545"/>
+    </row>
+    <row r="546">
+      <c s="3" r="B546"/>
+    </row>
+    <row r="547">
+      <c s="3" r="B547"/>
+    </row>
+    <row r="548">
+      <c s="3" r="B548"/>
+    </row>
+    <row r="549">
+      <c s="3" r="B549"/>
+    </row>
+    <row r="550">
+      <c s="3" r="B550"/>
+    </row>
+    <row r="551">
+      <c s="3" r="B551"/>
+    </row>
+    <row r="552">
+      <c s="3" r="B552"/>
+    </row>
+    <row r="553">
+      <c s="3" r="B553"/>
+    </row>
+    <row r="554">
+      <c s="3" r="B554"/>
+    </row>
+    <row r="555">
+      <c s="3" r="B555"/>
+    </row>
+    <row r="556">
+      <c s="3" r="B556"/>
+    </row>
+    <row r="557">
+      <c s="3" r="B557"/>
+    </row>
+    <row r="558">
+      <c s="3" r="B558"/>
+    </row>
+    <row r="559">
+      <c s="3" r="B559"/>
+    </row>
+    <row r="560">
+      <c s="3" r="B560"/>
+    </row>
+    <row r="561">
+      <c s="3" r="B561"/>
+    </row>
+    <row r="562">
+      <c s="3" r="B562"/>
+    </row>
+    <row r="563">
+      <c s="3" r="B563"/>
+    </row>
+    <row r="564">
+      <c s="3" r="B564"/>
+    </row>
+    <row r="565">
+      <c s="3" r="B565"/>
+    </row>
+    <row r="566">
+      <c s="3" r="B566"/>
+    </row>
+    <row r="567">
+      <c s="3" r="B567"/>
+    </row>
+    <row r="568">
+      <c s="3" r="B568"/>
+    </row>
+    <row r="569">
+      <c s="3" r="B569"/>
+    </row>
+    <row r="570">
+      <c s="3" r="B570"/>
+    </row>
+    <row r="571">
+      <c s="3" r="B571"/>
+    </row>
+    <row r="572">
+      <c s="3" r="B572"/>
+    </row>
+    <row r="573">
+      <c s="3" r="B573"/>
+    </row>
+    <row r="574">
+      <c s="3" r="B574"/>
+    </row>
+    <row r="575">
+      <c s="3" r="B575"/>
+    </row>
+    <row r="576">
+      <c s="3" r="B576"/>
+    </row>
+    <row r="577">
+      <c s="3" r="B577"/>
+    </row>
+    <row r="578">
+      <c s="3" r="B578"/>
+    </row>
+    <row r="579">
+      <c s="3" r="B579"/>
+    </row>
+    <row r="580">
+      <c s="3" r="B580"/>
+    </row>
+    <row r="581">
+      <c s="3" r="B581"/>
+    </row>
+    <row r="582">
+      <c s="3" r="B582"/>
+    </row>
+    <row r="583">
+      <c s="3" r="B583"/>
+    </row>
+    <row r="584">
+      <c s="3" r="B584"/>
+    </row>
+    <row r="585">
+      <c s="3" r="B585"/>
+    </row>
+    <row r="586">
+      <c s="3" r="B586"/>
+    </row>
+    <row r="587">
+      <c s="3" r="B587"/>
+    </row>
+    <row r="588">
+      <c s="3" r="B588"/>
+    </row>
+    <row r="589">
+      <c s="3" r="B589"/>
+    </row>
+    <row r="590">
+      <c s="3" r="B590"/>
+    </row>
+    <row r="591">
+      <c s="3" r="B591"/>
+    </row>
+    <row r="592">
+      <c s="3" r="B592"/>
+    </row>
+    <row r="593">
+      <c s="3" r="B593"/>
+    </row>
+    <row r="594">
+      <c s="3" r="B594"/>
+    </row>
+    <row r="595">
+      <c s="3" r="B595"/>
+    </row>
+    <row r="596">
+      <c s="3" r="B596"/>
+    </row>
+    <row r="597">
+      <c s="3" r="B597"/>
+    </row>
+    <row r="598">
+      <c s="3" r="B598"/>
+    </row>
+    <row r="599">
+      <c s="3" r="B599"/>
+    </row>
+    <row r="600">
+      <c s="3" r="B600"/>
+    </row>
+    <row r="601">
+      <c s="3" r="B601"/>
+    </row>
+    <row r="602">
+      <c s="3" r="B602"/>
+    </row>
+    <row r="603">
+      <c s="3" r="B603"/>
+    </row>
+    <row r="604">
+      <c s="3" r="B604"/>
+    </row>
+    <row r="605">
+      <c s="3" r="B605"/>
+    </row>
+    <row r="606">
+      <c s="3" r="B606"/>
+    </row>
+    <row r="607">
+      <c s="3" r="B607"/>
+    </row>
+    <row r="608">
+      <c s="3" r="B608"/>
+    </row>
+    <row r="609">
+      <c s="3" r="B609"/>
+    </row>
+    <row r="610">
+      <c s="3" r="B610"/>
+    </row>
+    <row r="611">
+      <c s="3" r="B611"/>
+    </row>
+    <row r="612">
+      <c s="3" r="B612"/>
+    </row>
+    <row r="613">
+      <c s="3" r="B613"/>
+    </row>
+    <row r="614">
+      <c s="3" r="B614"/>
+    </row>
+    <row r="615">
+      <c s="3" r="B615"/>
+    </row>
+    <row r="616">
+      <c s="3" r="B616"/>
+    </row>
+    <row r="617">
+      <c s="3" r="B617"/>
+    </row>
+    <row r="618">
+      <c s="3" r="B618"/>
+    </row>
+    <row r="619">
+      <c s="3" r="B619"/>
+    </row>
+    <row r="620">
+      <c s="3" r="B620"/>
+    </row>
+    <row r="621">
+      <c s="3" r="B621"/>
+    </row>
+    <row r="622">
+      <c s="3" r="B622"/>
+    </row>
+    <row r="623">
+      <c s="3" r="B623"/>
+    </row>
+    <row r="624">
+      <c s="3" r="B624"/>
+    </row>
+    <row r="625">
+      <c s="3" r="B625"/>
+    </row>
+    <row r="626">
+      <c s="3" r="B626"/>
+    </row>
+    <row r="627">
+      <c s="3" r="B627"/>
+    </row>
+    <row r="628">
+      <c s="3" r="B628"/>
+    </row>
+    <row r="629">
+      <c s="3" r="B629"/>
+    </row>
+    <row r="630">
+      <c s="3" r="B630"/>
+    </row>
+    <row r="631">
+      <c s="3" r="B631"/>
+    </row>
+    <row r="632">
+      <c s="3" r="B632"/>
+    </row>
+    <row r="633">
+      <c s="3" r="B633"/>
+    </row>
+    <row r="634">
+      <c s="3" r="B634"/>
+    </row>
+    <row r="635">
+      <c s="3" r="B635"/>
+    </row>
+    <row r="636">
+      <c s="3" r="B636"/>
+    </row>
+    <row r="637">
+      <c s="3" r="B637"/>
+    </row>
+    <row r="638">
+      <c s="3" r="B638"/>
+    </row>
+    <row r="639">
+      <c s="3" r="B639"/>
+    </row>
+    <row r="640">
+      <c s="3" r="B640"/>
+    </row>
+    <row r="641">
+      <c s="3" r="B641"/>
+    </row>
+    <row r="642">
+      <c s="3" r="B642"/>
+    </row>
+    <row r="643">
+      <c s="3" r="B643"/>
+    </row>
+    <row r="644">
+      <c s="3" r="B644"/>
+    </row>
+    <row r="645">
+      <c s="3" r="B645"/>
+    </row>
+    <row r="646">
+      <c s="3" r="B646"/>
+    </row>
+    <row r="647">
+      <c s="3" r="B647"/>
+    </row>
+    <row r="648">
+      <c s="3" r="B648"/>
+    </row>
+    <row r="649">
+      <c s="3" r="B649"/>
+    </row>
+    <row r="650">
+      <c s="3" r="B650"/>
+    </row>
+    <row r="651">
+      <c s="3" r="B651"/>
+    </row>
+    <row r="652">
+      <c s="3" r="B652"/>
+    </row>
+    <row r="653">
+      <c s="3" r="B653"/>
+    </row>
+    <row r="654">
+      <c s="3" r="B654"/>
+    </row>
+    <row r="655">
+      <c s="3" r="B655"/>
+    </row>
+    <row r="656">
+      <c s="3" r="B656"/>
+    </row>
+    <row r="657">
+      <c s="3" r="B657"/>
+    </row>
+    <row r="658">
+      <c s="3" r="B658"/>
+    </row>
+    <row r="659">
+      <c s="3" r="B659"/>
+    </row>
+    <row r="660">
+      <c s="3" r="B660"/>
+    </row>
+    <row r="661">
+      <c s="3" r="B661"/>
+    </row>
+    <row r="662">
+      <c s="3" r="B662"/>
+    </row>
+    <row r="663">
+      <c s="3" r="B663"/>
+    </row>
+    <row r="664">
+      <c s="3" r="B664"/>
+    </row>
+    <row r="665">
+      <c s="3" r="B665"/>
+    </row>
+    <row r="666">
+      <c s="3" r="B666"/>
+    </row>
+    <row r="667">
+      <c s="3" r="B667"/>
+    </row>
+    <row r="668">
+      <c s="3" r="B668"/>
+    </row>
+    <row r="669">
+      <c s="3" r="B669"/>
+    </row>
+    <row r="670">
+      <c s="3" r="B670"/>
+    </row>
+    <row r="671">
+      <c s="3" r="B671"/>
+    </row>
+    <row r="672">
+      <c s="3" r="B672"/>
+    </row>
+    <row r="673">
+      <c s="3" r="B673"/>
+    </row>
+    <row r="674">
+      <c s="3" r="B674"/>
+    </row>
+    <row r="675">
+      <c s="3" r="B675"/>
+    </row>
+    <row r="676">
+      <c s="3" r="B676"/>
+    </row>
+    <row r="677">
+      <c s="3" r="B677"/>
+    </row>
+    <row r="678">
+      <c s="3" r="B678"/>
+    </row>
+    <row r="679">
+      <c s="3" r="B679"/>
+    </row>
+    <row r="680">
+      <c s="3" r="B680"/>
+    </row>
+    <row r="681">
+      <c s="3" r="B681"/>
+    </row>
+    <row r="682">
+      <c s="3" r="B682"/>
+    </row>
+    <row r="683">
+      <c s="3" r="B683"/>
+    </row>
+    <row r="684">
+      <c s="3" r="B684"/>
+    </row>
+    <row r="685">
+      <c s="3" r="B685"/>
+    </row>
+    <row r="686">
+      <c s="3" r="B686"/>
+    </row>
+    <row r="687">
+      <c s="3" r="B687"/>
+    </row>
+    <row r="688">
+      <c s="3" r="B688"/>
+    </row>
+    <row r="689">
+      <c s="3" r="B689"/>
+    </row>
+    <row r="690">
+      <c s="3" r="B690"/>
+    </row>
+    <row r="691">
+      <c s="3" r="B691"/>
+    </row>
+    <row r="692">
+      <c s="3" r="B692"/>
+    </row>
+    <row r="693">
+      <c s="3" r="B693"/>
+    </row>
+    <row r="694">
+      <c s="3" r="B694"/>
+    </row>
+    <row r="695">
+      <c s="3" r="B695"/>
+    </row>
+    <row r="696">
+      <c s="3" r="B696"/>
+    </row>
+    <row r="697">
+      <c s="3" r="B697"/>
+    </row>
+    <row r="698">
+      <c s="3" r="B698"/>
+    </row>
+    <row r="699">
+      <c s="3" r="B699"/>
+    </row>
+    <row r="700">
+      <c s="3" r="B700"/>
+    </row>
+    <row r="701">
+      <c s="3" r="B701"/>
+    </row>
+    <row r="702">
+      <c s="3" r="B702"/>
+    </row>
+    <row r="703">
+      <c s="3" r="B703"/>
+    </row>
+    <row r="704">
+      <c s="3" r="B704"/>
+    </row>
+    <row r="705">
+      <c s="3" r="B705"/>
+    </row>
+    <row r="706">
+      <c s="3" r="B706"/>
+    </row>
+    <row r="707">
+      <c s="3" r="B707"/>
+    </row>
+    <row r="708">
+      <c s="3" r="B708"/>
+    </row>
+    <row r="709">
+      <c s="3" r="B709"/>
+    </row>
+    <row r="710">
+      <c s="3" r="B710"/>
+    </row>
+    <row r="711">
+      <c s="3" r="B711"/>
+    </row>
+    <row r="712">
+      <c s="3" r="B712"/>
+    </row>
+    <row r="713">
+      <c s="3" r="B713"/>
+    </row>
+    <row r="714">
+      <c s="3" r="B714"/>
+    </row>
+    <row r="715">
+      <c s="3" r="B715"/>
+    </row>
+    <row r="716">
+      <c s="3" r="B716"/>
+    </row>
+    <row r="717">
+      <c s="3" r="B717"/>
+    </row>
+    <row r="718">
+      <c s="3" r="B718"/>
+    </row>
+    <row r="719">
+      <c s="3" r="B719"/>
+    </row>
+    <row r="720">
+      <c s="3" r="B720"/>
+    </row>
+    <row r="721">
+      <c s="3" r="B721"/>
+    </row>
+    <row r="722">
+      <c s="3" r="B722"/>
+    </row>
+    <row r="723">
+      <c s="3" r="B723"/>
+    </row>
+    <row r="724">
+      <c s="3" r="B724"/>
+    </row>
+    <row r="725">
+      <c s="3" r="B725"/>
+    </row>
+    <row r="726">
+      <c s="3" r="B726"/>
+    </row>
+    <row r="727">
+      <c s="3" r="B727"/>
+    </row>
+    <row r="728">
+      <c s="3" r="B728"/>
+    </row>
+    <row r="729">
+      <c s="3" r="B729"/>
+    </row>
+    <row r="730">
+      <c s="3" r="B730"/>
+    </row>
+    <row r="731">
+      <c s="3" r="B731"/>
+    </row>
+    <row r="732">
+      <c s="3" r="B732"/>
+    </row>
+    <row r="733">
+      <c s="3" r="B733"/>
+    </row>
+    <row r="734">
+      <c s="3" r="B734"/>
+    </row>
+    <row r="735">
+      <c s="3" r="B735"/>
+    </row>
+    <row r="736">
+      <c s="3" r="B736"/>
+    </row>
+    <row r="737">
+      <c s="3" r="B737"/>
+    </row>
+    <row r="738">
+      <c s="3" r="B738"/>
+    </row>
+    <row r="739">
+      <c s="3" r="B739"/>
+    </row>
+    <row r="740">
+      <c s="3" r="B740"/>
+    </row>
+    <row r="741">
+      <c s="3" r="B741"/>
+    </row>
+    <row r="742">
+      <c s="3" r="B742"/>
+    </row>
+    <row r="743">
+      <c s="3" r="B743"/>
+    </row>
+    <row r="744">
+      <c s="3" r="B744"/>
+    </row>
+    <row r="745">
+      <c s="3" r="B745"/>
+    </row>
+    <row r="746">
+      <c s="3" r="B746"/>
+    </row>
+    <row r="747">
+      <c s="3" r="B747"/>
+    </row>
+    <row r="748">
+      <c s="3" r="B748"/>
+    </row>
+    <row r="749">
+      <c s="3" r="B749"/>
+    </row>
+    <row r="750">
+      <c s="3" r="B750"/>
+    </row>
+    <row r="751">
+      <c s="3" r="B751"/>
+    </row>
+    <row r="752">
+      <c s="3" r="B752"/>
+    </row>
+    <row r="753">
+      <c s="3" r="B753"/>
+    </row>
+    <row r="754">
+      <c s="3" r="B754"/>
+    </row>
+    <row r="755">
+      <c s="3" r="B755"/>
+    </row>
+    <row r="756">
+      <c s="3" r="B756"/>
+    </row>
+    <row r="757">
+      <c s="3" r="B757"/>
+    </row>
+    <row r="758">
+      <c s="3" r="B758"/>
+    </row>
+    <row r="759">
+      <c s="3" r="B759"/>
+    </row>
+    <row r="760">
+      <c s="3" r="B760"/>
+    </row>
+    <row r="761">
+      <c s="3" r="B761"/>
+    </row>
+    <row r="762">
+      <c s="3" r="B762"/>
+    </row>
+    <row r="763">
+      <c s="3" r="B763"/>
+    </row>
+    <row r="764">
+      <c s="3" r="B764"/>
+    </row>
+    <row r="765">
+      <c s="3" r="B765"/>
+    </row>
+    <row r="766">
+      <c s="3" r="B766"/>
+    </row>
+    <row r="767">
+      <c s="3" r="B767"/>
+    </row>
+    <row r="768">
+      <c s="3" r="B768"/>
+    </row>
+    <row r="769">
+      <c s="3" r="B769"/>
+    </row>
+    <row r="770">
+      <c s="3" r="B770"/>
+    </row>
+    <row r="771">
+      <c s="3" r="B771"/>
+    </row>
+    <row r="772">
+      <c s="3" r="B772"/>
+    </row>
+    <row r="773">
+      <c s="3" r="B773"/>
+    </row>
+    <row r="774">
+      <c s="3" r="B774"/>
+    </row>
+    <row r="775">
+      <c s="3" r="B775"/>
+    </row>
+    <row r="776">
+      <c s="3" r="B776"/>
+    </row>
+    <row r="777">
+      <c s="3" r="B777"/>
+    </row>
+    <row r="778">
+      <c s="3" r="B778"/>
+    </row>
+    <row r="779">
+      <c s="3" r="B779"/>
+    </row>
+    <row r="780">
+      <c s="3" r="B780"/>
+    </row>
+    <row r="781">
+      <c s="3" r="B781"/>
+    </row>
+    <row r="782">
+      <c s="3" r="B782"/>
+    </row>
+    <row r="783">
+      <c s="3" r="B783"/>
+    </row>
+    <row r="784">
+      <c s="3" r="B784"/>
+    </row>
+    <row r="785">
+      <c s="3" r="B785"/>
+    </row>
+    <row r="786">
+      <c s="3" r="B786"/>
+    </row>
+    <row r="787">
+      <c s="3" r="B787"/>
+    </row>
+    <row r="788">
+      <c s="3" r="B788"/>
+    </row>
+    <row r="789">
+      <c s="3" r="B789"/>
+    </row>
+    <row r="790">
+      <c s="3" r="B790"/>
+    </row>
+    <row r="791">
+      <c s="3" r="B791"/>
+    </row>
+    <row r="792">
+      <c s="3" r="B792"/>
+    </row>
+    <row r="793">
+      <c s="3" r="B793"/>
+    </row>
+    <row r="794">
+      <c s="3" r="B794"/>
+    </row>
+    <row r="795">
+      <c s="3" r="B795"/>
+    </row>
+    <row r="796">
+      <c s="3" r="B796"/>
+    </row>
+    <row r="797">
+      <c s="3" r="B797"/>
+    </row>
+    <row r="798">
+      <c s="3" r="B798"/>
+    </row>
+    <row r="799">
+      <c s="3" r="B799"/>
+    </row>
+    <row r="800">
+      <c s="3" r="B800"/>
+    </row>
+    <row r="801">
+      <c s="3" r="B801"/>
+    </row>
+    <row r="802">
+      <c s="3" r="B802"/>
+    </row>
+    <row r="803">
+      <c s="3" r="B803"/>
+    </row>
+    <row r="804">
+      <c s="3" r="B804"/>
+    </row>
+    <row r="805">
+      <c s="3" r="B805"/>
+    </row>
+    <row r="806">
+      <c s="3" r="B806"/>
+    </row>
+    <row r="807">
+      <c s="3" r="B807"/>
+    </row>
+    <row r="808">
+      <c s="3" r="B808"/>
+    </row>
+    <row r="809">
+      <c s="3" r="B809"/>
+    </row>
+    <row r="810">
+      <c s="3" r="B810"/>
+    </row>
+    <row r="811">
+      <c s="3" r="B811"/>
+    </row>
+    <row r="812">
+      <c s="3" r="B812"/>
+    </row>
+    <row r="813">
+      <c s="3" r="B813"/>
+    </row>
+    <row r="814">
+      <c s="3" r="B814"/>
+    </row>
+    <row r="815">
+      <c s="3" r="B815"/>
+    </row>
+    <row r="816">
+      <c s="3" r="B816"/>
+    </row>
+    <row r="817">
+      <c s="3" r="B817"/>
+    </row>
+    <row r="818">
+      <c s="3" r="B818"/>
+    </row>
+    <row r="819">
+      <c s="3" r="B819"/>
+    </row>
+    <row r="820">
+      <c s="3" r="B820"/>
+    </row>
+    <row r="821">
+      <c s="3" r="B821"/>
+    </row>
+    <row r="822">
+      <c s="3" r="B822"/>
+    </row>
+    <row r="823">
+      <c s="3" r="B823"/>
+    </row>
+    <row r="824">
+      <c s="3" r="B824"/>
+    </row>
+    <row r="825">
+      <c s="3" r="B825"/>
+    </row>
+    <row r="826">
+      <c s="3" r="B826"/>
+    </row>
+    <row r="827">
+      <c s="3" r="B827"/>
+    </row>
+    <row r="828">
+      <c s="3" r="B828"/>
+    </row>
+    <row r="829">
+      <c s="3" r="B829"/>
+    </row>
+    <row r="830">
+      <c s="3" r="B830"/>
+    </row>
+    <row r="831">
+      <c s="3" r="B831"/>
+    </row>
+    <row r="832">
+      <c s="3" r="B832"/>
+    </row>
+    <row r="833">
+      <c s="3" r="B833"/>
+    </row>
+    <row r="834">
+      <c s="3" r="B834"/>
+    </row>
+    <row r="835">
+      <c s="3" r="B835"/>
+    </row>
+    <row r="836">
+      <c s="3" r="B836"/>
+    </row>
+    <row r="837">
+      <c s="3" r="B837"/>
+    </row>
+    <row r="838">
+      <c s="3" r="B838"/>
+    </row>
+    <row r="839">
+      <c s="3" r="B839"/>
+    </row>
+    <row r="840">
+      <c s="3" r="B840"/>
+    </row>
+    <row r="841">
+      <c s="3" r="B841"/>
+    </row>
+    <row r="842">
+      <c s="3" r="B842"/>
+    </row>
+    <row r="843">
+      <c s="3" r="B843"/>
+    </row>
+    <row r="844">
+      <c s="3" r="B844"/>
+    </row>
+    <row r="845">
+      <c s="3" r="B845"/>
+    </row>
+    <row r="846">
+      <c s="3" r="B846"/>
+    </row>
+    <row r="847">
+      <c s="3" r="B847"/>
+    </row>
+    <row r="848">
+      <c s="3" r="B848"/>
+    </row>
+    <row r="849">
+      <c s="3" r="B849"/>
+    </row>
+    <row r="850">
+      <c s="3" r="B850"/>
+    </row>
+    <row r="851">
+      <c s="3" r="B851"/>
+    </row>
+    <row r="852">
+      <c s="3" r="B852"/>
+    </row>
+    <row r="853">
+      <c s="3" r="B853"/>
+    </row>
+    <row r="854">
+      <c s="3" r="B854"/>
+    </row>
+    <row r="855">
+      <c s="3" r="B855"/>
+    </row>
+    <row r="856">
+      <c s="3" r="B856"/>
+    </row>
+    <row r="857">
+      <c s="3" r="B857"/>
+    </row>
+    <row r="858">
+      <c s="3" r="B858"/>
+    </row>
+    <row r="859">
+      <c s="3" r="B859"/>
+    </row>
+    <row r="860">
+      <c s="3" r="B860"/>
+    </row>
+    <row r="861">
+      <c s="3" r="B861"/>
+    </row>
+    <row r="862">
+      <c s="3" r="B862"/>
+    </row>
+    <row r="863">
+      <c s="3" r="B863"/>
+    </row>
+    <row r="864">
+      <c s="3" r="B864"/>
+    </row>
+    <row r="865">
+      <c s="3" r="B865"/>
+    </row>
+    <row r="866">
+      <c s="3" r="B866"/>
+    </row>
+    <row r="867">
+      <c s="3" r="B867"/>
+    </row>
+    <row r="868">
+      <c s="3" r="B868"/>
+    </row>
+    <row r="869">
+      <c s="3" r="B869"/>
+    </row>
+    <row r="870">
+      <c s="3" r="B870"/>
+    </row>
+    <row r="871">
+      <c s="3" r="B871"/>
+    </row>
+    <row r="872">
+      <c s="3" r="B872"/>
+    </row>
+    <row r="873">
+      <c s="3" r="B873"/>
+    </row>
+    <row r="874">
+      <c s="3" r="B874"/>
+    </row>
+    <row r="875">
+      <c s="3" r="B875"/>
+    </row>
+    <row r="876">
+      <c s="3" r="B876"/>
+    </row>
+    <row r="877">
+      <c s="3" r="B877"/>
+    </row>
+    <row r="878">
+      <c s="3" r="B878"/>
+    </row>
+    <row r="879">
+      <c s="3" r="B879"/>
+    </row>
+    <row r="880">
+      <c s="3" r="B880"/>
+    </row>
+    <row r="881">
+      <c s="3" r="B881"/>
+    </row>
+    <row r="882">
+      <c s="3" r="B882"/>
+    </row>
+    <row r="883">
+      <c s="3" r="B883"/>
+    </row>
+    <row r="884">
+      <c s="3" r="B884"/>
+    </row>
+    <row r="885">
+      <c s="3" r="B885"/>
+    </row>
+    <row r="886">
+      <c s="3" r="B886"/>
+    </row>
+    <row r="887">
+      <c s="3" r="B887"/>
+    </row>
+    <row r="888">
+      <c s="3" r="B888"/>
+    </row>
+    <row r="889">
+      <c s="3" r="B889"/>
+    </row>
+    <row r="890">
+      <c s="3" r="B890"/>
+    </row>
+    <row r="891">
+      <c s="3" r="B891"/>
+    </row>
+    <row r="892">
+      <c s="3" r="B892"/>
+    </row>
+    <row r="893">
+      <c s="3" r="B893"/>
+    </row>
+    <row r="894">
+      <c s="3" r="B894"/>
+    </row>
+    <row r="895">
+      <c s="3" r="B895"/>
+    </row>
+    <row r="896">
+      <c s="3" r="B896"/>
+    </row>
+    <row r="897">
+      <c s="3" r="B897"/>
+    </row>
+    <row r="898">
+      <c s="3" r="B898"/>
+    </row>
+    <row r="899">
+      <c s="3" r="B899"/>
+    </row>
+    <row r="900">
+      <c s="3" r="B900"/>
+    </row>
+    <row r="901">
+      <c s="3" r="B901"/>
+    </row>
+    <row r="902">
+      <c s="3" r="B902"/>
+    </row>
+    <row r="903">
+      <c s="3" r="B903"/>
+    </row>
+    <row r="904">
+      <c s="3" r="B904"/>
+    </row>
+    <row r="905">
+      <c s="3" r="B905"/>
+    </row>
+    <row r="906">
+      <c s="3" r="B906"/>
+    </row>
+    <row r="907">
+      <c s="3" r="B907"/>
+    </row>
+    <row r="908">
+      <c s="3" r="B908"/>
+    </row>
+    <row r="909">
+      <c s="3" r="B909"/>
+    </row>
+    <row r="910">
+      <c s="3" r="B910"/>
+    </row>
+    <row r="911">
+      <c s="3" r="B911"/>
+    </row>
+    <row r="912">
+      <c s="3" r="B912"/>
+    </row>
+    <row r="913">
+      <c s="3" r="B913"/>
+    </row>
+    <row r="914">
+      <c s="3" r="B914"/>
+    </row>
+    <row r="915">
+      <c s="3" r="B915"/>
+    </row>
+    <row r="916">
+      <c s="3" r="B916"/>
+    </row>
+    <row r="917">
+      <c s="3" r="B917"/>
+    </row>
+    <row r="918">
+      <c s="3" r="B918"/>
+    </row>
+    <row r="919">
+      <c s="3" r="B919"/>
+    </row>
+    <row r="920">
+      <c s="3" r="B920"/>
+    </row>
+    <row r="921">
+      <c s="3" r="B921"/>
+    </row>
+    <row r="922">
+      <c s="3" r="B922"/>
+    </row>
+    <row r="923">
+      <c s="3" r="B923"/>
+    </row>
+    <row r="924">
+      <c s="3" r="B924"/>
+    </row>
+    <row r="925">
+      <c s="3" r="B925"/>
+    </row>
+    <row r="926">
+      <c s="3" r="B926"/>
+    </row>
+    <row r="927">
+      <c s="3" r="B927"/>
+    </row>
+    <row r="928">
+      <c s="3" r="B928"/>
+    </row>
+    <row r="929">
+      <c s="3" r="B929"/>
+    </row>
+    <row r="930">
+      <c s="3" r="B930"/>
+    </row>
+    <row r="931">
+      <c s="3" r="B931"/>
+    </row>
+    <row r="932">
+      <c s="3" r="B932"/>
+    </row>
+    <row r="933">
+      <c s="3" r="B933"/>
+    </row>
+    <row r="934">
+      <c s="3" r="B934"/>
+    </row>
+    <row r="935">
+      <c s="3" r="B935"/>
+    </row>
+    <row r="936">
+      <c s="3" r="B936"/>
+    </row>
+    <row r="937">
+      <c s="3" r="B937"/>
+    </row>
+    <row r="938">
+      <c s="3" r="B938"/>
+    </row>
+    <row r="939">
+      <c s="3" r="B939"/>
+    </row>
+    <row r="940">
+      <c s="3" r="B940"/>
+    </row>
+    <row r="941">
+      <c s="3" r="B941"/>
+    </row>
+    <row r="942">
+      <c s="3" r="B942"/>
+    </row>
+    <row r="943">
+      <c s="3" r="B943"/>
+    </row>
+    <row r="944">
+      <c s="3" r="B944"/>
+    </row>
+    <row r="945">
+      <c s="3" r="B945"/>
+    </row>
+    <row r="946">
+      <c s="3" r="B946"/>
+    </row>
+    <row r="947">
+      <c s="3" r="B947"/>
+    </row>
+    <row r="948">
+      <c s="3" r="B948"/>
+    </row>
+    <row r="949">
+      <c s="3" r="B949"/>
+    </row>
+    <row r="950">
+      <c s="3" r="B950"/>
+    </row>
+    <row r="951">
+      <c s="3" r="B951"/>
+    </row>
+    <row r="952">
+      <c s="3" r="B952"/>
+    </row>
+    <row r="953">
+      <c s="3" r="B953"/>
+    </row>
+    <row r="954">
+      <c s="3" r="B954"/>
+    </row>
+    <row r="955">
+      <c s="3" r="B955"/>
+    </row>
+    <row r="956">
+      <c s="3" r="B956"/>
+    </row>
+    <row r="957">
+      <c s="3" r="B957"/>
+    </row>
+    <row r="958">
+      <c s="3" r="B958"/>
+    </row>
+    <row r="959">
+      <c s="3" r="B959"/>
+    </row>
+    <row r="960">
+      <c s="3" r="B960"/>
+    </row>
+    <row r="961">
+      <c s="3" r="B961"/>
+    </row>
+    <row r="962">
+      <c s="3" r="B962"/>
+    </row>
+    <row r="963">
+      <c s="3" r="B963"/>
+    </row>
+    <row r="964">
+      <c s="3" r="B964"/>
+    </row>
+    <row r="965">
+      <c s="3" r="B965"/>
+    </row>
+    <row r="966">
+      <c s="3" r="B966"/>
+    </row>
+    <row r="967">
+      <c s="3" r="B967"/>
+    </row>
+    <row r="968">
+      <c s="3" r="B968"/>
+    </row>
+    <row r="969">
+      <c s="3" r="B969"/>
+    </row>
+    <row r="970">
+      <c s="3" r="B970"/>
+    </row>
+    <row r="971">
+      <c s="3" r="B971"/>
+    </row>
+    <row r="972">
+      <c s="3" r="B972"/>
+    </row>
+    <row r="973">
+      <c s="3" r="B973"/>
+    </row>
+    <row r="974">
+      <c s="3" r="B974"/>
+    </row>
+    <row r="975">
+      <c s="3" r="B975"/>
+    </row>
+    <row r="976">
+      <c s="3" r="B976"/>
+    </row>
+    <row r="977">
+      <c s="3" r="B977"/>
+    </row>
+    <row r="978">
+      <c s="3" r="B978"/>
+    </row>
+    <row r="979">
+      <c s="3" r="B979"/>
+    </row>
+    <row r="980">
+      <c s="3" r="B980"/>
+    </row>
+    <row r="981">
+      <c s="3" r="B981"/>
+    </row>
+    <row r="982">
+      <c s="3" r="B982"/>
+    </row>
+    <row r="983">
+      <c s="3" r="B983"/>
+    </row>
+    <row r="984">
+      <c s="3" r="B984"/>
+    </row>
+    <row r="985">
+      <c s="3" r="B985"/>
+    </row>
+    <row r="986">
+      <c s="3" r="B986"/>
+    </row>
+    <row r="987">
+      <c s="3" r="B987"/>
+    </row>
+    <row r="988">
+      <c s="3" r="B988"/>
+    </row>
+    <row r="989">
+      <c s="3" r="B989"/>
+    </row>
+    <row r="990">
+      <c s="3" r="B990"/>
+    </row>
+    <row r="991">
+      <c s="3" r="B991"/>
+    </row>
+    <row r="992">
+      <c s="3" r="B992"/>
+    </row>
+    <row r="993">
+      <c s="3" r="B993"/>
+    </row>
+    <row r="994">
+      <c s="3" r="B994"/>
+    </row>
+    <row r="995">
+      <c s="3" r="B995"/>
+    </row>
+    <row r="996">
+      <c s="3" r="B996"/>
+    </row>
+    <row r="997">
+      <c s="3" r="B997"/>
+    </row>
+    <row r="998">
+      <c s="3" r="B998"/>
+    </row>
+    <row r="999">
+      <c s="3" r="B999"/>
+    </row>
+    <row r="1000">
+      <c s="3" r="B1000"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -211,34 +3200,34 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -255,34 +3244,34 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test_copy.xlsx
+++ b/examples/test_copy.xlsx
@@ -39,6 +39,9 @@
     <t>3:37 AM</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>This content goes to 12</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>term</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
   </si>
   <si>
     <t>What kind?</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -199,6 +208,9 @@
       </c>
     </row>
     <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>8</v>
+      </c>
       <c s="3" r="B5"/>
     </row>
     <row r="6">
@@ -3200,34 +3212,39 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3244,34 +3261,39 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test_copy.xlsx
+++ b/examples/test_copy.xlsx
@@ -63,7 +63,7 @@
     <t>footer_title</t>
   </si>
   <si>
-    <t>This content goes to 12</t>
+    <t>&lt;strong&gt;This content goes to 12&lt;/strong&gt;</t>
   </si>
   <si>
     <t>nothing</t>

--- a/examples/test_copy.xlsx
+++ b/examples/test_copy.xlsx
@@ -6,6 +6,7 @@
     <sheet sheetId="1" name="attribution" state="visible" r:id="rId3"/>
     <sheet sheetId="2" name="content" state="visible" r:id="rId4"/>
     <sheet sheetId="3" name="example_list" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="key_without_value" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -94,6 +95,33 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>name </t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>first-last</t>
+  </si>
+  <si>
+    <t>first last</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>hi-lo</t>
+  </si>
+  <si>
+    <t>hi lo</t>
+  </si>
+  <si>
+    <t>boo</t>
   </si>
 </sst>
 </file>
@@ -168,6 +196,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -3299,4 +3331,50 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>29</v>
+      </c>
+      <c s="1" r="D1"/>
+    </row>
+    <row r="2">
+      <c t="s" s="1" r="A2">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="B2">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="C2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="1" r="A3">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="B3">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="C3">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>